--- a/Landing Page _Executive View_updated (1).xlsx
+++ b/Landing Page _Executive View_updated (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshavardhan.raju/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{AB221CAD-8B6D-4509-8390-F46C8B941A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A54340F-F0B0-4F48-BFCD-00F575646A6D}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{AB221CAD-8B6D-4509-8390-F46C8B941A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C5DA9F-0BF4-4923-BD0B-45BCF0331AAA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{69D3CD5C-D9BD-4BD2-865A-9BAA106DB722}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="1" xr2:uid="{69D3CD5C-D9BD-4BD2-865A-9BAA106DB722}"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page Trend" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>viewers</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E68F13-F299-4AB5-A7B2-76AF6F00FE90}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1163,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172A0E99-7B57-4BC2-BFC4-BF2D13C420AE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1184,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
